--- a/PageObjectModel/data/PlantationCreateNewDO.xlsx
+++ b/PageObjectModel/data/PlantationCreateNewDO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>UserName</t>
   </si>
@@ -25,6 +25,9 @@
     <t>partner</t>
   </si>
   <si>
+    <t>DO Number</t>
+  </si>
+  <si>
     <t>VehicleNumber</t>
   </si>
   <si>
@@ -55,7 +58,10 @@
     <t>passwordgmas123</t>
   </si>
   <si>
-    <t>Dibiz Global</t>
+    <t>Gunung Mas Palm Oil Mill Sdn. Bhd.</t>
+  </si>
+  <si>
+    <t>DO-Plantation-001-20200820</t>
   </si>
   <si>
     <t>KA 01 2020</t>
@@ -64,19 +70,19 @@
     <t>DrD</t>
   </si>
   <si>
-    <t>Road and Rail Plantation</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Crude Palm Oil (#CPO)</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>newRemarks</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Fresh fruit bunch (#FFB)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -84,12 +90,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,30 +104,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,7 +143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +151,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -152,7 +167,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,59 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -232,22 +247,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -264,19 +263,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,73 +395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,85 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,16 +473,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,17 +491,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -525,9 +513,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,183 +569,177 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1052,28 +1060,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7777777777778" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.4444444444444" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="32.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="27.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="11" width="8.66666666666667" customWidth="1"/>
+    <col min="12" max="12" width="16.6666666666667" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1107,40 +1116,46 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>9</v>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/PageObjectModel/data/PlantationCreateNewDO.xlsx
+++ b/PageObjectModel/data/PlantationCreateNewDO.xlsx
@@ -90,8 +90,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -113,22 +113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,7 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,52 +144,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +158,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -227,14 +191,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +211,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -263,181 +263,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,17 +472,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,8 +484,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,22 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +531,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,24 +561,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,130 +590,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,8 +1062,8 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
